--- a/biology/Médecine/Wilhelm_Gottfried_Ploucquet/Wilhelm_Gottfried_Ploucquet.xlsx
+++ b/biology/Médecine/Wilhelm_Gottfried_Ploucquet/Wilhelm_Gottfried_Ploucquet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilhelm Gottfried Ploucquet est un médecin allemand, professeur de médecine à l'université de Tübingen, auteur de nombreux ouvrages médicaux et d'une bibliographie de médecine, né à Rotenberg (Wurtemberg) en 1744 et mort à Tübingen en 1814. 
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilhelm Gottfried Ploucquet est issu d'une famille protestante française, réfugiée à Stuttgart après la révocation de l'édit de Nantes ; il est le fils du philosophe et logicien Gottfried Ploucquet. Le taxidermiste Hermann Ploucquet fait partie de cette même famille.
-Il étudie la médecine à l'université de Tübingen et obtient son doctorat en 1766 avec sa thèse De vi corporum organisatorum assimilatrici. En 1776, il est élu membre de l'Académie Léopoldine[1]. 
+Il étudie la médecine à l'université de Tübingen et obtient son doctorat en 1766 avec sa thèse De vi corporum organisatorum assimilatrici. En 1776, il est élu membre de l'Académie Léopoldine. 
 En 1782, il est nommé professeur ordinaire de médecine à l'université de Tübingen et reste à ce poste jusqu'à sa mort.
 </t>
         </is>
@@ -544,10 +558,12 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Wilhelm Gottfried Ploucquet est connu pour deux ouvrages[2] : 
-en 1782, sa Dissertatio nova pulmonum docimasia, rééditée et augmentée en 1787 sous le titre Commentarius medicus in processus criminales supra homicidio, infanticidio et embryoctonia, expose la méthode qu'il a enseignée, à savoir l'examen des poumons pour déterminer scientifiquement la mort criminelle des nouveau-nés, apporte une contribution extrêmement importante à la médecine légale[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Wilhelm Gottfried Ploucquet est connu pour deux ouvrages : 
+en 1782, sa Dissertatio nova pulmonum docimasia, rééditée et augmentée en 1787 sous le titre Commentarius medicus in processus criminales supra homicidio, infanticidio et embryoctonia, expose la méthode qu'il a enseignée, à savoir l'examen des poumons pour déterminer scientifiquement la mort criminelle des nouveau-nés, apporte une contribution extrêmement importante à la médecine légale.
 en 1793-1800, il publie un ouvrage bibliographique de grande envergure, Initia bibliothecae medico-practicae realis, sive Repertorium med.-practicum et chirurgicum reale, en 12 volumes et 4 volumes de suppléments ; une suite, Litteratura medica digesta, est publiée en 1808, 1809 et 1814 en quatre volumes et un volume de suppléments.
 Ploucquet a publié de nombreux autres petits traités médicaux et vétérinaires, ainsi que des manuels, en latin et en allemand : 
 Dissertatio de vi corporum organisatorum assimilatrice (Tübingen, 1766, in-4°) ;
